--- a/data/cat_ax3008.xlsx
+++ b/data/cat_ax3008.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpres\py\aDbnostixAcctg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620144B9-B498-4568-A1A6-557FBF661026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753FA4AE-413D-4148-8976-DA25A7C268E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="1335" windowWidth="20850" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="2835" windowWidth="20850" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pivot" sheetId="3" r:id="rId1"/>
+    <sheet name="Category" sheetId="3" r:id="rId1"/>
     <sheet name="Transaction Details" sheetId="1" r:id="rId2"/>
     <sheet name="Transaction Summary" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -401,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -512,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -557,7 +557,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,7 +1062,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D7074A1-13E0-4667-B731-048AEE4D0090}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D7074A1-13E0-4667-B731-048AEE4D0090}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -1484,17 +1483,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9E2FA4-8464-4996-8361-4D22234E75F7}">
   <dimension ref="A3:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
         <v>115</v>
       </c>
@@ -1502,139 +1501,139 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4">
         <v>201.04000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5">
         <v>-2422.0899999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6">
         <v>39.869999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8">
         <v>69.91</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9">
         <v>204.97</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10">
         <v>418.31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11">
         <v>5.99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12">
         <v>94.25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13">
         <v>105.25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14">
         <v>682.64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15">
         <v>99.99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16">
         <v>657.2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17">
         <v>29.24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18">
         <v>148.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19">
         <v>352.9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20">
         <v>702.87000000000046</v>
       </c>
     </row>
@@ -1651,14 +1650,14 @@
       <selection sqref="A1:D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +1755,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -1784,7 +1783,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -1826,7 +1825,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
@@ -1840,7 +1839,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -1854,7 +1853,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>36</v>
       </c>
@@ -1882,7 +1881,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -1924,7 +1923,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -1938,7 +1937,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>44</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>45</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>46</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>47</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>49</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>50</v>
       </c>
@@ -2036,7 +2035,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
         <v>51</v>
       </c>
@@ -2050,7 +2049,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>53</v>
       </c>
@@ -2064,7 +2063,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>53</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>54</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>55</v>
       </c>
@@ -2106,7 +2105,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>57</v>
       </c>
@@ -2120,7 +2119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>58</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>60</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>63</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>64</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="10" t="s">
         <v>67</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>67</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>69</v>
       </c>
@@ -2232,7 +2231,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="10" t="s">
         <v>70</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>70</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="10" t="s">
         <v>71</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>72</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>74</v>
       </c>
@@ -2302,7 +2301,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>74</v>
       </c>
@@ -2316,7 +2315,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>75</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>76</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="10" t="s">
         <v>77</v>
       </c>
@@ -2358,7 +2357,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>77</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="10" t="s">
         <v>79</v>
       </c>
@@ -2386,7 +2385,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>79</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>81</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>81</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>82</v>
       </c>
@@ -2442,7 +2441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>83</v>
       </c>
@@ -2456,7 +2455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="A58" s="10" t="s">
         <v>84</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>84</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="A60" s="10" t="s">
         <v>85</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>88</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
         <v>89</v>
       </c>
@@ -2526,7 +2525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>90</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1">
       <c r="A64" s="10" t="s">
         <v>90</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
       <c r="A65" s="9" t="s">
         <v>91</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
       <c r="A66" s="10" t="s">
         <v>92</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1">
       <c r="A67" s="9" t="s">
         <v>94</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
       <c r="A68" s="10" t="s">
         <v>95</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
       <c r="A69" s="9" t="s">
         <v>95</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
       <c r="A70" s="10" t="s">
         <v>96</v>
       </c>
@@ -2638,7 +2637,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1">
       <c r="A71" s="9" t="s">
         <v>97</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1">
       <c r="A72" s="10" t="s">
         <v>98</v>
       </c>
@@ -2666,7 +2665,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1">
       <c r="A73" s="9" t="s">
         <v>99</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1">
       <c r="A74" s="10" t="s">
         <v>99</v>
       </c>
@@ -2706,9 +2705,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="2" t="s">
         <v>101</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>153.38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -2818,7 +2817,7 @@
         <v>549.49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="3" t="s">
         <v>104</v>
       </c>
